--- a/data/add-ons/LSFIM_KY_v6.xlsx
+++ b/data/add-ons/LSFIM_KY_v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643A259B-0054-4745-8493-56763EB98EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EC7D18-685B-F446-A7FB-A4EC3E674458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="11" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,7 @@
     <author>Kadija Yilla</author>
     <author>tc={7314685E-335E-47AA-B478-1BA6ABF2BDA3}</author>
     <author>tc={2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}</author>
+    <author>tc={9A70CCFC-2FF1-6542-8FA3-6F18A9D75CBA}</author>
     <author>tc={33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}</author>
     <author>tc={11731043-8530-4DAC-9476-3C98D0D836BB}</author>
     <author>tc={DF0EC25E-9AE4-45F2-BCE9-95D46AA2D480}</author>
@@ -385,7 +386,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -394,12 +395,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-table 1.10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">table 1.10
 </t>
         </r>
       </text>
@@ -412,7 +422,15 @@
     grow with nom purchases</t>
       </text>
     </comment>
-    <comment ref="L61" authorId="3" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+    <comment ref="M56" authorId="3" shapeId="0" xr:uid="{9A70CCFC-2FF1-6542-8FA3-6F18A9D75CBA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Shouldn’t this now be the difference between bea legislation and medicaid grants?</t>
+      </text>
+    </comment>
+    <comment ref="L61" authorId="4" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -447,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N72" authorId="4" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+    <comment ref="N72" authorId="5" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -488,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N79" authorId="5" shapeId="0" xr:uid="{DF0EC25E-9AE4-45F2-BCE9-95D46AA2D480}">
+    <comment ref="N79" authorId="6" shapeId="0" xr:uid="{DF0EC25E-9AE4-45F2-BCE9-95D46AA2D480}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -496,7 +514,7 @@
     CBO projected is 1.96%</t>
       </text>
     </comment>
-    <comment ref="M83" authorId="6" shapeId="0" xr:uid="{55BAE892-7CB3-4E1D-8C31-C7FA6DC5B9F4}">
+    <comment ref="M83" authorId="7" shapeId="0" xr:uid="{55BAE892-7CB3-4E1D-8C31-C7FA6DC5B9F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -504,7 +522,7 @@
     OVERRIDE IN THE FIM WITH -5%</t>
       </text>
     </comment>
-    <comment ref="N83" authorId="7" shapeId="0" xr:uid="{5A5A9177-799E-4FBA-A407-831B591270CB}">
+    <comment ref="N83" authorId="8" shapeId="0" xr:uid="{5A5A9177-799E-4FBA-A407-831B591270CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -514,7 +532,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="O83" authorId="8" shapeId="0" xr:uid="{6E4225DC-7AF1-4149-8AFD-DF5FEAFAE0CE}">
+    <comment ref="O83" authorId="9" shapeId="0" xr:uid="{6E4225DC-7AF1-4149-8AFD-DF5FEAFAE0CE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -524,7 +542,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="P83" authorId="9" shapeId="0" xr:uid="{E0AA59A4-D972-4354-844E-3B08443F6713}">
+    <comment ref="P83" authorId="10" shapeId="0" xr:uid="{E0AA59A4-D972-4354-844E-3B08443F6713}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -605,16 +623,17 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={1855A115-8570-465F-B05E-38BBA49F0533}</author>
+    <author>tc={287E40BF-B36B-2448-B64D-715BA9FBA22E}</author>
     <author>tc={3C125DA7-4F05-46DF-A087-778AC4E0593F}</author>
+    <author>tc={978B5991-81D3-BD48-9CDE-5162632510A3}</author>
   </authors>
   <commentList>
-    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{1855A115-8570-465F-B05E-38BBA49F0533}">
+    <comment ref="M37" authorId="0" shapeId="0" xr:uid="{287E40BF-B36B-2448-B64D-715BA9FBA22E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    where is this sourced?</t>
+    We’re double counting PEUC I think</t>
       </text>
     </comment>
     <comment ref="O37" authorId="1" shapeId="0" xr:uid="{3C125DA7-4F05-46DF-A087-778AC4E0593F}">
@@ -625,12 +644,20 @@
     why is federal including total legislation *and* also PEUC?</t>
       </text>
     </comment>
+    <comment ref="O43" authorId="2" shapeId="0" xr:uid="{978B5991-81D3-BD48-9CDE-5162632510A3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    where is this sourced?</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -652,7 +679,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="340">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -1925,12 +1952,15 @@
   <si>
     <t>second estimate</t>
   </si>
+  <si>
+    <t>UNLABELED ROW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -1941,8 +1971,9 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2173,6 +2204,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2680,7 +2717,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3250,6 +3287,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3271,33 +3323,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3357,7 +3399,7 @@
       <sheetName val="Sheet6"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="13">
           <cell r="D13">
@@ -3374,23 +3416,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3706,6 +3748,9 @@
   <threadedComment ref="L56" dT="2020-09-10T19:09:05.64" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
     <text>grow with nom purchases</text>
   </threadedComment>
+  <threadedComment ref="M56" dT="2021-01-14T16:49:01.56" personId="{CE7965FB-6D9A-C247-A3AE-EA28428512F3}" id="{9A70CCFC-2FF1-6542-8FA3-6F18A9D75CBA}">
+    <text>Shouldn’t this now be the difference between bea legislation and medicaid grants?</text>
+  </threadedComment>
   <threadedComment ref="L61" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?</text>
   </threadedComment>
@@ -3770,11 +3815,14 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O34" dT="2020-10-19T15:00:30.46" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1855A115-8570-465F-B05E-38BBA49F0533}">
-    <text>where is this sourced?</text>
+  <threadedComment ref="M37" dT="2021-01-14T19:06:43.60" personId="{CE7965FB-6D9A-C247-A3AE-EA28428512F3}" id="{287E40BF-B36B-2448-B64D-715BA9FBA22E}">
+    <text>We’re double counting PEUC I think</text>
   </threadedComment>
   <threadedComment ref="O37" dT="2020-10-19T15:28:22.85" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3C125DA7-4F05-46DF-A087-778AC4E0593F}">
     <text>why is federal including total legislation *and* also PEUC?</text>
+  </threadedComment>
+  <threadedComment ref="O43" dT="2020-10-19T15:00:30.46" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{978B5991-81D3-BD48-9CDE-5162632510A3}">
+    <text>where is this sourced?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3783,11 +3831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6098,7 +6146,7 @@
         <v>738200</v>
       </c>
       <c r="N35" s="87">
-        <f t="shared" ref="M35:R35" si="26">N36+N37</f>
+        <f t="shared" ref="N35:R35" si="26">N36+N37</f>
         <v>257800</v>
       </c>
       <c r="O35" s="87">
@@ -6203,7 +6251,7 @@
         <v>366.73333333333329</v>
       </c>
       <c r="AD36" s="45">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(N36:Q36)/1000</f>
         <v>120</v>
       </c>
       <c r="AE36" s="45">
@@ -7333,7 +7381,7 @@
         <v>192875</v>
       </c>
       <c r="I55" s="205">
-        <f t="shared" si="34"/>
+        <f>I54-I67</f>
         <v>191507</v>
       </c>
       <c r="J55" s="205">
@@ -8857,6 +8905,9 @@
       <c r="AL80" s="243"/>
     </row>
     <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
+        <v>339</v>
+      </c>
       <c r="F81" s="199"/>
       <c r="G81" s="199"/>
       <c r="H81" s="199"/>
@@ -9048,11 +9099,11 @@
         <v>489927</v>
       </c>
       <c r="N85" s="223">
-        <f t="shared" ref="N85:Y85" si="64">N71+N38-N67</f>
+        <f>N71+N38-N67</f>
         <v>405893.45314006024</v>
       </c>
       <c r="O85" s="223">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="N85:Y85" si="64">O71+O38-O67</f>
         <v>389550.39386997721</v>
       </c>
       <c r="P85" s="223">
@@ -9122,8 +9173,8 @@
         <v>182970.60314006027</v>
       </c>
       <c r="O86" s="142">
-        <f t="shared" si="65"/>
-        <v>186270.23674497718</v>
+        <f>O73-O67</f>
+        <v>-530153.75073570432</v>
       </c>
       <c r="P86" s="142">
         <f t="shared" si="65"/>
@@ -9472,7 +9523,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9487,7 +9538,7 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="325" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="8"/>
@@ -11779,10 +11830,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="91" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11791,6 +11842,7 @@
     <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="11" width="12.5" customWidth="1"/>
+    <col min="15" max="22" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -11798,68 +11850,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="308"/>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="313" t="s">
+      <c r="A4" s="313"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="318" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="313"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="313"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="318"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="309" t="s">
+      <c r="C5" s="314" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="311"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="316"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="312" t="s">
+      <c r="L5" s="317" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="286"/>
@@ -11870,16 +11922,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="315">
+      <c r="C6" s="308">
         <v>2020</v>
       </c>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="316"/>
-      <c r="G6" s="316"/>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="317"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
+      <c r="J6" s="310"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -12025,15 +12077,15 @@
       </c>
       <c r="L10" s="73"/>
       <c r="M10" s="73">
-        <f t="shared" ref="M10:M12" si="0">AVERAGE(F10:H10)</f>
+        <f>AVERAGE(F10:H10)</f>
         <v>7.0666666666666673</v>
       </c>
       <c r="N10" s="73">
-        <f t="shared" ref="N10:O12" si="1">4*N28</f>
+        <f t="shared" ref="N10:O12" si="0">4*N28</f>
         <v>37.413333333333327</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -12065,15 +12117,15 @@
       </c>
       <c r="L11" s="73"/>
       <c r="M11" s="73">
+        <f t="shared" ref="M11" si="1">AVERAGE(F11:H11)</f>
+        <v>122.73333333333335</v>
+      </c>
+      <c r="N11" s="73">
         <f t="shared" si="0"/>
-        <v>122.73333333333335</v>
-      </c>
-      <c r="N11" s="73">
-        <f t="shared" si="1"/>
         <v>146.10666666666663</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="P11">
@@ -12117,15 +12169,15 @@
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="73">
+        <f>AVERAGE(F12:H12)</f>
+        <v>686.06666666666661</v>
+      </c>
+      <c r="N12" s="73">
         <f t="shared" si="0"/>
-        <v>686.06666666666661</v>
-      </c>
-      <c r="N12" s="73">
-        <f t="shared" si="1"/>
         <v>456.1733333333334</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -12350,12 +12402,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="318" t="s">
+      <c r="K23" s="311" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="318"/>
-      <c r="M23" s="318"/>
-      <c r="N23" s="318"/>
+      <c r="L23" s="311"/>
+      <c r="M23" s="311"/>
+      <c r="N23" s="311"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -12524,7 +12576,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="314" t="s">
+      <c r="I28" s="307" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -12538,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="83">
-        <f t="shared" si="7"/>
+        <f>M10/4</f>
         <v>1.7666666666666668</v>
       </c>
       <c r="N28" s="83">
@@ -12575,7 +12627,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="314"/>
+      <c r="I29" s="307"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -12624,7 +12676,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="314"/>
+      <c r="I30" s="307"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -12673,7 +12725,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="314"/>
+      <c r="I31" s="307"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -12710,7 +12762,7 @@
         <v>175.77499999999998</v>
       </c>
       <c r="G32" s="72">
-        <f>G30-G31</f>
+        <f>G30-G24</f>
         <v>46.715000000000003</v>
       </c>
       <c r="H32">
@@ -12735,7 +12787,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="314" t="s">
+      <c r="I33" s="307" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -12783,48 +12835,48 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="314"/>
+      <c r="I34" s="307"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
-      <c r="K34" s="72">
+      <c r="K34" s="327">
         <f>K26-K33</f>
         <v>6.95</v>
       </c>
-      <c r="L34" s="72">
+      <c r="L34" s="327">
         <f>L26-L33</f>
         <v>10.85</v>
       </c>
-      <c r="M34" s="72">
+      <c r="M34" s="327">
         <f>M26-M33</f>
         <v>71.166666666666686</v>
       </c>
-      <c r="N34" s="72">
+      <c r="N34" s="327">
         <f>N26-N33</f>
         <v>30.076666666666654</v>
       </c>
-      <c r="O34" s="72">
+      <c r="O34" s="327">
         <v>25</v>
       </c>
-      <c r="P34" s="72">
+      <c r="P34" s="327">
         <v>25</v>
       </c>
-      <c r="Q34" s="72">
+      <c r="Q34" s="327">
         <v>23</v>
       </c>
-      <c r="R34" s="72">
+      <c r="R34" s="327">
         <v>22</v>
       </c>
-      <c r="S34" s="72">
+      <c r="S34" s="327">
         <v>20</v>
       </c>
-      <c r="T34" s="72">
+      <c r="T34" s="327">
         <v>15</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="327">
         <v>15</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="327">
         <v>15</v>
       </c>
     </row>
@@ -12857,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="72">
-        <f t="shared" ref="L37:M37" si="10">L33+L28</f>
+        <f t="shared" ref="L37" si="10">L33+L28</f>
         <v>0</v>
       </c>
       <c r="M37" s="72">
@@ -12960,8 +13012,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="O43" s="326">
+        <v>25</v>
+      </c>
+      <c r="P43" s="326">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="326">
+        <v>23</v>
+      </c>
+      <c r="R43" s="326">
+        <v>22</v>
+      </c>
+      <c r="S43" s="326">
+        <v>21.8</v>
+      </c>
+      <c r="T43" s="326">
+        <v>15</v>
+      </c>
+      <c r="U43" s="326">
+        <v>15</v>
+      </c>
+      <c r="V43" s="326">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>23.7</v>
+      </c>
+      <c r="P44">
+        <v>23.7</v>
+      </c>
+      <c r="Q44">
+        <v>23.7</v>
+      </c>
+      <c r="R44">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="O45" s="102">
+        <f>O43/95</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="P45" s="102">
+        <f t="shared" ref="P45:R45" si="15">P43/95</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="Q45" s="102">
+        <f t="shared" si="15"/>
+        <v>0.24210526315789474</v>
+      </c>
+      <c r="R45" s="102">
+        <f t="shared" si="15"/>
+        <v>0.23157894736842105</v>
+      </c>
+      <c r="S45" s="102">
+        <f>S43/66.8</f>
+        <v>0.32634730538922158</v>
+      </c>
+      <c r="T45" s="102">
+        <f>T43/66.8</f>
+        <v>0.22455089820359284</v>
+      </c>
+      <c r="U45" s="102">
+        <f t="shared" ref="U45:V45" si="16">U43/66.8</f>
+        <v>0.22455089820359284</v>
+      </c>
+      <c r="V45" s="102">
+        <f t="shared" si="16"/>
+        <v>0.22455089820359284</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -12969,12 +13101,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13082,22 +13208,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="322" t="s">
+      <c r="E6" s="320" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="322"/>
-      <c r="G6" s="322"/>
-      <c r="H6" s="322"/>
-      <c r="I6" s="322"/>
-      <c r="J6" s="322"/>
-      <c r="K6" s="322"/>
-      <c r="L6" s="322"/>
-      <c r="M6" s="322"/>
-      <c r="N6" s="322"/>
-      <c r="O6" s="322"/>
-      <c r="P6" s="322"/>
-      <c r="Q6" s="322"/>
-      <c r="R6" s="322"/>
+      <c r="F6" s="320"/>
+      <c r="G6" s="320"/>
+      <c r="H6" s="320"/>
+      <c r="I6" s="320"/>
+      <c r="J6" s="320"/>
+      <c r="K6" s="320"/>
+      <c r="L6" s="320"/>
+      <c r="M6" s="320"/>
+      <c r="N6" s="320"/>
+      <c r="O6" s="320"/>
+      <c r="P6" s="320"/>
+      <c r="Q6" s="320"/>
+      <c r="R6" s="320"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="319" t="s">
@@ -13833,21 +13959,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="320" t="s">
+      <c r="H27" s="321" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="320"/>
-      <c r="J27" s="320"/>
-      <c r="K27" s="320"/>
-      <c r="L27" s="320"/>
-      <c r="M27" s="320"/>
-      <c r="N27" s="320"/>
-      <c r="O27" s="320"/>
-      <c r="P27" s="320"/>
-      <c r="Q27" s="320"/>
-      <c r="R27" s="320"/>
-      <c r="S27" s="320"/>
-      <c r="T27" s="320"/>
+      <c r="I27" s="321"/>
+      <c r="J27" s="321"/>
+      <c r="K27" s="321"/>
+      <c r="L27" s="321"/>
+      <c r="M27" s="321"/>
+      <c r="N27" s="321"/>
+      <c r="O27" s="321"/>
+      <c r="P27" s="321"/>
+      <c r="Q27" s="321"/>
+      <c r="R27" s="321"/>
+      <c r="S27" s="321"/>
+      <c r="T27" s="321"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -14163,21 +14289,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="321" t="s">
+      <c r="F37" s="322" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="321"/>
-      <c r="H37" s="321"/>
-      <c r="I37" s="321"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="321"/>
-      <c r="L37" s="321"/>
-      <c r="M37" s="321"/>
-      <c r="N37" s="321"/>
-      <c r="O37" s="321"/>
-      <c r="P37" s="321"/>
-      <c r="Q37" s="321"/>
-      <c r="R37" s="321"/>
+      <c r="G37" s="322"/>
+      <c r="H37" s="322"/>
+      <c r="I37" s="322"/>
+      <c r="J37" s="322"/>
+      <c r="K37" s="322"/>
+      <c r="L37" s="322"/>
+      <c r="M37" s="322"/>
+      <c r="N37" s="322"/>
+      <c r="O37" s="322"/>
+      <c r="P37" s="322"/>
+      <c r="Q37" s="322"/>
+      <c r="R37" s="322"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -14493,21 +14619,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="320" t="s">
+      <c r="F48" s="321" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="320"/>
-      <c r="H48" s="320"/>
-      <c r="I48" s="320"/>
-      <c r="J48" s="320"/>
-      <c r="K48" s="320"/>
-      <c r="L48" s="320"/>
-      <c r="M48" s="320"/>
-      <c r="N48" s="320"/>
-      <c r="O48" s="320"/>
-      <c r="P48" s="320"/>
-      <c r="Q48" s="320"/>
-      <c r="R48" s="320"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="321"/>
+      <c r="J48" s="321"/>
+      <c r="K48" s="321"/>
+      <c r="L48" s="321"/>
+      <c r="M48" s="321"/>
+      <c r="N48" s="321"/>
+      <c r="O48" s="321"/>
+      <c r="P48" s="321"/>
+      <c r="Q48" s="321"/>
+      <c r="R48" s="321"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -14819,12 +14945,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -14833,6 +14953,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14843,9 +14969,9 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18507,10 +18633,10 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19624,7 +19750,7 @@
       </c>
       <c r="G24" s="149">
         <f>main!O86/1000</f>
-        <v>186.27023674497718</v>
+        <v>-530.15375073570431</v>
       </c>
       <c r="H24" s="104">
         <f>main!P86/1000</f>
@@ -19894,7 +20020,7 @@
       </c>
       <c r="G27" s="150">
         <f t="shared" ref="G27" si="17">G24-G25</f>
-        <v>-26.789650629444708</v>
+        <v>-743.21363811012623</v>
       </c>
       <c r="H27" s="225">
         <f t="shared" ref="H27" si="18">H24-H25</f>
@@ -22785,7 +22911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -22934,7 +23060,7 @@
         <v>44196</v>
       </c>
       <c r="B4">
-        <v>-26.789650629444708</v>
+        <v>-743.21363811012623</v>
       </c>
       <c r="C4">
         <v>-630.45068126596811</v>
@@ -29243,9 +29369,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29466,27 +29595,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29511,9 +29628,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>